--- a/DataWrangling/week_10_dashboards/TF_IDF.xlsx
+++ b/DataWrangling/week_10_dashboards/TF_IDF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hansf\Documents\GitHub\ADS\DataWrangling\week_10_dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D27BC9-25B2-4EDC-AE3F-58E9A582F84F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F49738-7644-470D-9BA5-307ACA6FF5CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29CA6386-2C57-4CF5-A941-431F269C375B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>TF</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Normalizing</t>
+  </si>
+  <si>
+    <t>COS (TF-IDF)</t>
   </si>
 </sst>
 </file>
@@ -648,11 +651,12 @@
   <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -786,39 +790,39 @@
         <v>0.15</v>
       </c>
       <c r="Q4" s="16">
-        <f t="shared" ref="Q4:Q6" si="0">E4/SUM($D$4:$M$4)</f>
+        <f t="shared" ref="Q4" si="0">E4/SUM($D$4:$M$4)</f>
         <v>0</v>
       </c>
       <c r="R4" s="16">
-        <f t="shared" ref="R4:R6" si="1">F4/SUM($D$4:$M$4)</f>
+        <f t="shared" ref="R4" si="1">F4/SUM($D$4:$M$4)</f>
         <v>0.25</v>
       </c>
       <c r="S4" s="16">
-        <f t="shared" ref="S4:S6" si="2">G4/SUM($D$4:$M$4)</f>
+        <f t="shared" ref="S4" si="2">G4/SUM($D$4:$M$4)</f>
         <v>0</v>
       </c>
       <c r="T4" s="16">
-        <f t="shared" ref="T4:T6" si="3">H4/SUM($D$4:$M$4)</f>
+        <f t="shared" ref="T4" si="3">H4/SUM($D$4:$M$4)</f>
         <v>0.1</v>
       </c>
       <c r="U4" s="16">
-        <f t="shared" ref="U4:U6" si="4">I4/SUM($D$4:$M$4)</f>
+        <f t="shared" ref="U4" si="4">I4/SUM($D$4:$M$4)</f>
         <v>0.3</v>
       </c>
       <c r="V4" s="16">
-        <f t="shared" ref="V4:V6" si="5">J4/SUM($D$4:$M$4)</f>
+        <f t="shared" ref="V4" si="5">J4/SUM($D$4:$M$4)</f>
         <v>0</v>
       </c>
       <c r="W4" s="16">
-        <f t="shared" ref="W4:W6" si="6">K4/SUM($D$4:$M$4)</f>
+        <f t="shared" ref="W4" si="6">K4/SUM($D$4:$M$4)</f>
         <v>0.1</v>
       </c>
       <c r="X4" s="16">
-        <f t="shared" ref="X4:X6" si="7">L4/SUM($D$4:$M$4)</f>
+        <f t="shared" ref="X4" si="7">L4/SUM($D$4:$M$4)</f>
         <v>0</v>
       </c>
       <c r="Y4" s="16">
-        <f t="shared" ref="Y4:Y6" si="8">M4/SUM($D$4:$M$4)</f>
+        <f t="shared" ref="Y4" si="8">M4/SUM($D$4:$M$4)</f>
         <v>0.1</v>
       </c>
       <c r="Z4" s="15">
@@ -1575,7 +1579,7 @@
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>

--- a/DataWrangling/week_10_dashboards/TF_IDF.xlsx
+++ b/DataWrangling/week_10_dashboards/TF_IDF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hansf\Documents\GitHub\ADS\DataWrangling\week_10_dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F49738-7644-470D-9BA5-307ACA6FF5CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EBE2F3-7BC3-4B03-9293-8B5A7E6F4133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29CA6386-2C57-4CF5-A941-431F269C375B}"/>
   </bookViews>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CF0A7F-CA41-498D-A8A6-7F8A017BDC4B}">
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,13 +747,13 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -787,7 +787,7 @@
       </c>
       <c r="P4" s="16">
         <f>D4/SUM($D$4:$M$4)</f>
-        <v>0.15</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" ref="Q4" si="0">E4/SUM($D$4:$M$4)</f>
@@ -795,7 +795,7 @@
       </c>
       <c r="R4" s="16">
         <f t="shared" ref="R4" si="1">F4/SUM($D$4:$M$4)</f>
-        <v>0.25</v>
+        <v>0.12195121951219512</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" ref="S4" si="2">G4/SUM($D$4:$M$4)</f>
@@ -803,11 +803,11 @@
       </c>
       <c r="T4" s="16">
         <f t="shared" ref="T4" si="3">H4/SUM($D$4:$M$4)</f>
-        <v>0.1</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="U4" s="16">
         <f t="shared" ref="U4" si="4">I4/SUM($D$4:$M$4)</f>
-        <v>0.3</v>
+        <v>0.14634146341463414</v>
       </c>
       <c r="V4" s="16">
         <f t="shared" ref="V4" si="5">J4/SUM($D$4:$M$4)</f>
@@ -815,7 +815,7 @@
       </c>
       <c r="W4" s="16">
         <f t="shared" ref="W4" si="6">K4/SUM($D$4:$M$4)</f>
-        <v>0.1</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="X4" s="16">
         <f t="shared" ref="X4" si="7">L4/SUM($D$4:$M$4)</f>
@@ -823,7 +823,7 @@
       </c>
       <c r="Y4" s="16">
         <f t="shared" ref="Y4" si="8">M4/SUM($D$4:$M$4)</f>
-        <v>0.1</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="Z4" s="15">
         <f>SUM(P4:Y4)</f>
@@ -999,8 +999,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="5">
-        <f>COUNTIFS(D4:D6,"&gt;0")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:F7" si="11">COUNTIFS(E4:E6,"&gt;0")</f>
@@ -1082,16 +1081,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" ref="D10:M10" si="19">D4*LN($A$4/D$7)</f>
-        <v>3.2958368660043291</v>
+        <f>D4*LN($A$4/D$7)</f>
+        <v>0</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="D10:M10" si="19">E4*LN($A$4/E$7)</f>
         <v>0</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="19"/>
-        <v>5.4930614433405491</v>
+        <v>6.9314718055994531</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="19"/>
@@ -1099,11 +1098,11 @@
       </c>
       <c r="H10" s="6">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.57536414490356169</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="19"/>
-        <v>2.4327906486489863</v>
+        <v>4.1588830833596715</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="19"/>
@@ -1111,7 +1110,7 @@
       </c>
       <c r="K10" s="6">
         <f t="shared" si="19"/>
-        <v>0.81093021621632877</v>
+        <v>1.3862943611198906</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="19"/>
@@ -1119,7 +1118,7 @@
       </c>
       <c r="M10" s="6">
         <f t="shared" si="19"/>
-        <v>2.1972245773362196</v>
+        <v>2.7725887222397811</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -1132,7 +1131,7 @@
       </c>
       <c r="E11" s="6">
         <f t="shared" si="20"/>
-        <v>2.8382557567571505</v>
+        <v>4.8520302639196169</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="20"/>
@@ -1140,11 +1139,11 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="20"/>
-        <v>2.1972245773362196</v>
+        <v>2.7725887222397811</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.28768207245178085</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="20"/>
@@ -1156,7 +1155,7 @@
       </c>
       <c r="K11" s="6">
         <f t="shared" si="20"/>
-        <v>1.2163953243244932</v>
+        <v>2.0794415416798357</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="20"/>
@@ -1165,6 +1164,12 @@
       <c r="M11" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>24</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -1177,7 +1182,7 @@
       </c>
       <c r="E12" s="6">
         <f t="shared" si="21"/>
-        <v>0.40546510810816438</v>
+        <v>0.69314718055994529</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="21"/>
@@ -1189,15 +1194,15 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.28768207245178085</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="21"/>
-        <v>0.81093021621632877</v>
+        <v>1.3862943611198906</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="21"/>
-        <v>2.1972245773362196</v>
+        <v>2.7725887222397811</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="21"/>
@@ -1205,7 +1210,7 @@
       </c>
       <c r="L12" s="6">
         <f t="shared" si="21"/>
-        <v>3.2958368660043291</v>
+        <v>4.1588830833596715</v>
       </c>
       <c r="M12" s="6">
         <f t="shared" si="21"/>
@@ -1664,7 +1669,7 @@
       </c>
       <c r="D26" s="6">
         <f>D10</f>
-        <v>3.2958368660043291</v>
+        <v>0</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" ref="E26:M26" si="25">E10</f>
@@ -1672,7 +1677,7 @@
       </c>
       <c r="F26" s="6">
         <f t="shared" si="25"/>
-        <v>5.4930614433405491</v>
+        <v>6.9314718055994531</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="25"/>
@@ -1680,11 +1685,11 @@
       </c>
       <c r="H26" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>0.57536414490356169</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="25"/>
-        <v>2.4327906486489863</v>
+        <v>4.1588830833596715</v>
       </c>
       <c r="J26" s="6">
         <f t="shared" si="25"/>
@@ -1692,7 +1697,7 @@
       </c>
       <c r="K26" s="6">
         <f t="shared" si="25"/>
-        <v>0.81093021621632877</v>
+        <v>1.3862943611198906</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="25"/>
@@ -1700,15 +1705,15 @@
       </c>
       <c r="M26" s="6">
         <f t="shared" si="25"/>
-        <v>2.1972245773362196</v>
+        <v>2.7725887222397811</v>
       </c>
       <c r="N26" s="4">
         <f>D26*D26+E26*E26+F26*F26+G26*G26+H26*H26+I26*I26+J26*J26+K26*K26+L26*L26+M26*M26</f>
-        <v>52.440138666604739</v>
+        <v>75.281714070480021</v>
       </c>
       <c r="O26" s="4">
         <f>SQRT(N26)</f>
-        <v>7.2415563704637931</v>
+        <v>8.6765035625233295</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.3">
@@ -1721,7 +1726,7 @@
       </c>
       <c r="E27" s="6">
         <f t="shared" si="26"/>
-        <v>2.8382557567571505</v>
+        <v>4.8520302639196169</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="26"/>
@@ -1729,11 +1734,11 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="26"/>
-        <v>2.1972245773362196</v>
+        <v>2.7725887222397811</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.28768207245178085</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="26"/>
@@ -1745,7 +1750,7 @@
       </c>
       <c r="K27" s="6">
         <f t="shared" si="26"/>
-        <v>1.2163953243244932</v>
+        <v>2.0794415416798357</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="26"/>
@@ -1757,11 +1762,11 @@
       </c>
       <c r="N27" s="4">
         <f>D27*D27+E27*E27+F27*F27+G27*G27+H27*H27+I27*I27+J27*J27+K27*K27+L27*L27+M27*M27</f>
-        <v>14.363109169053921</v>
+        <v>35.636284004757051</v>
       </c>
       <c r="O27" s="4">
         <f>SQRT(N27)</f>
-        <v>3.7898692812620753</v>
+        <v>5.969613388215107</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.3">
@@ -1774,7 +1779,7 @@
       </c>
       <c r="E28" s="6">
         <f t="shared" si="27"/>
-        <v>0.40546510810816438</v>
+        <v>0.69314718055994529</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="27"/>
@@ -1786,15 +1791,15 @@
       </c>
       <c r="H28" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.28768207245178085</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="27"/>
-        <v>0.81093021621632877</v>
+        <v>1.3862943611198906</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" si="27"/>
-        <v>2.1972245773362196</v>
+        <v>2.7725887222397811</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="27"/>
@@ -1802,7 +1807,7 @@
       </c>
       <c r="L28" s="6">
         <f t="shared" si="27"/>
-        <v>3.2958368660043291</v>
+        <v>4.1588830833596715</v>
       </c>
       <c r="M28" s="6">
         <f t="shared" si="27"/>
@@ -1810,11 +1815,11 @@
       </c>
       <c r="N28" s="4">
         <f>D28*D28+E28*E28+F28*F28+G28*G28+H28*H28+I28*I28+J28*J28+K28*K28+L28*L28+M28*M28</f>
-        <v>16.512346260029396</v>
+        <v>27.468582768147627</v>
       </c>
       <c r="O28" s="4">
         <f>SQRT(N28)</f>
-        <v>4.0635386376936786</v>
+        <v>5.2410478692860289</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.3">
@@ -1848,7 +1853,7 @@
       </c>
       <c r="I31" s="7">
         <f t="shared" si="28"/>
-        <v>0.23755152578571212</v>
+        <v>0.33893542591370701</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" si="28"/>
@@ -1868,7 +1873,7 @@
       </c>
       <c r="N31" s="8">
         <f>SUM(D31:M31)</f>
-        <v>0.23755152578571212</v>
+        <v>0.33893542591370701</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.3">
@@ -1881,7 +1886,7 @@
       </c>
       <c r="E32" s="7">
         <f t="shared" si="29"/>
-        <v>0.52955649480247946</v>
+        <v>0.57472792273500017</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="29"/>
@@ -1917,7 +1922,7 @@
       </c>
       <c r="N32" s="8">
         <f>SUM(D32:M32)</f>
-        <v>0.52955649480247946</v>
+        <v>0.57472792273500017</v>
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.3">
@@ -1930,7 +1935,7 @@
       </c>
       <c r="E33" s="7">
         <f t="shared" ref="E33:M33" si="30">E$25*(E28/($O$25*$O28))</f>
-        <v>7.0556023466420023E-2</v>
+        <v>9.351738124861704E-2</v>
       </c>
       <c r="F33" s="7">
         <f t="shared" si="30"/>
@@ -1946,7 +1951,7 @@
       </c>
       <c r="I33" s="7">
         <f t="shared" si="30"/>
-        <v>0.14111204693284005</v>
+        <v>0.18703476249723408</v>
       </c>
       <c r="J33" s="7">
         <f t="shared" si="30"/>
@@ -1966,7 +1971,7 @@
       </c>
       <c r="N33" s="8">
         <f>SUM(D33:M33)</f>
-        <v>0.21166807039926006</v>
+        <v>0.28055214374585113</v>
       </c>
     </row>
   </sheetData>
@@ -1979,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F7D906-0E18-4F76-AEC7-46BE778FD493}">
   <dimension ref="B7:L17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
